--- a/필답.xlsx
+++ b/필답.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Resources\BigBunGi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D77B1-35CB-4F97-B7BE-27778C8EF56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC91F2-F9D9-40CF-871E-E71E49D0F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/필답.xlsx
+++ b/필답.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Resources\BigBunGi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC91F2-F9D9-40CF-871E-E71E49D0F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E91C73-521A-4EA4-92B7-EFB9010F002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>000은 특정 지정된 그룹에 분류되지 못하는 값으로, 정상군의 상한과 하한의 범위를 벗어난 자료를 의미하며, 000 탐색은 질 높은 통계 분석 결과 도출에 있어 중요한 역할 을 담당한다.</t>
   </si>
@@ -424,13 +425,76 @@
   </si>
   <si>
     <t>부스팅</t>
+  </si>
+  <si>
+    <t>평균대치법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료의 적절한 평균값으로 결측값을 대치하여 불완전한 자료를 완전한 자료로 만든 후, 완전한 자료를 마치 관측 또는 실험되어 얻어진 자료라고 생각하고 분석하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비지도학습</t>
+  </si>
+  <si>
+    <t>정답 라벨이 없는 데이터를 비슷한 특징끼리 군집화 하여 새로운 데이터에 대한 결과를 예측하는 방법</t>
+  </si>
+  <si>
+    <t>여러개의 분류기가 순차적으로 학습을 수행
+이전 분류기가 예측이 틀린 데이터에 대해서 올바르게 예측할 수 있도록 다음 분류기에게 가중치(weight)를 부여하면서 학습과 예측을 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이퍼파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델에 설정하는 변수로 학습률(Learning Rate), 에포크 수(훈련 반복 횟수), 가중치 초기화 사용자 직접 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradient boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계학습에서 부스팅(Boosting)이란 단순하고 약한 학습기(Weak Learner)를 결합해서 보다 정확하고 강력한 학습기(Strong Learner)를 만드는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 학습(machine learning)에서 학습 데이터를 과하게 학습(overfitting)하는 것을 뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 변수가 포함된 모형으로부터 불필요한 독립변수들을 하나씩 제거해 나가는 과정을 반복하며 모형을 단순화해 나가는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후진제거법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민감도 1-특이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +507,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,8 +537,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -750,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,7 +835,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1432,6 +1507,98 @@
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08221E21-7E8F-4381-8E80-58EE3EFDCE36}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.625" customWidth="1"/>
+    <col min="2" max="2" width="170" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
